--- a/OnBoard/output/trust/catch/Catch_Trust_72.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_72.xlsx
@@ -1679,7 +1679,7 @@
         <v>0.078</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I32">
         <v>48.10777777777778</v>
@@ -2007,7 +2007,7 @@
         <v>2.926</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I40">
         <v>48.10777777777778</v>
@@ -2171,7 +2171,7 @@
         <v>0.208</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I44">
         <v>48.10777777777778</v>
